--- a/server/asset/1113export.xlsx
+++ b/server/asset/1113export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\happymovie\server\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A81A1-06BE-416B-BBD9-23B288572670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4252A-A9FA-499B-A015-4F3C289C160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1752,7 +1752,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1823,7 +1823,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2131,13 +2131,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="54.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="7" max="8" width="15.109375" customWidth="1"/>
     <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
